--- a/allTest_MSSPorgApril.xlsx
+++ b/allTest_MSSPorgApril.xlsx
@@ -1181,7 +1181,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>44692</v>
+        <v>44701</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1290,7 +1290,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -1307,7 +1307,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1324,7 +1324,7 @@
         <v>148</v>
       </c>
       <c r="C4" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1341,13 +1341,13 @@
         <v>148</v>
       </c>
       <c r="C5" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>117574</v>
+        <v>117511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1358,7 +1358,7 @@
         <v>148</v>
       </c>
       <c r="C6" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1375,7 +1375,7 @@
         <v>148</v>
       </c>
       <c r="C7" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1392,7 +1392,7 @@
         <v>148</v>
       </c>
       <c r="C8" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1409,7 +1409,7 @@
         <v>148</v>
       </c>
       <c r="C9" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -1443,13 +1443,13 @@
         <v>148</v>
       </c>
       <c r="C11" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>5093256</v>
+        <v>5093255</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1460,7 +1460,7 @@
         <v>148</v>
       </c>
       <c r="C12" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1477,7 +1477,7 @@
         <v>148</v>
       </c>
       <c r="C13" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1686,7 +1686,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -1718,7 +1718,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1750,7 +1750,7 @@
         <v>148</v>
       </c>
       <c r="C4" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1782,13 +1782,13 @@
         <v>148</v>
       </c>
       <c r="C5" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>117574</v>
+        <v>117511</v>
       </c>
       <c r="F5" t="s">
         <v>149</v>
@@ -1803,7 +1803,7 @@
         <v>117503</v>
       </c>
       <c r="J5">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1814,7 +1814,7 @@
         <v>148</v>
       </c>
       <c r="C6" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1846,7 +1846,7 @@
         <v>148</v>
       </c>
       <c r="C7" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1878,7 +1878,7 @@
         <v>148</v>
       </c>
       <c r="C8" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1910,7 +1910,7 @@
         <v>148</v>
       </c>
       <c r="C9" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -1974,13 +1974,13 @@
         <v>148</v>
       </c>
       <c r="C11" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>5093256</v>
+        <v>5093255</v>
       </c>
       <c r="F11" t="s">
         <v>149</v>
@@ -1995,7 +1995,7 @@
         <v>4979111</v>
       </c>
       <c r="J11">
-        <v>114145</v>
+        <v>114144</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2006,7 +2006,7 @@
         <v>148</v>
       </c>
       <c r="C12" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -2038,7 +2038,7 @@
         <v>148</v>
       </c>
       <c r="C13" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -2405,11 +2405,8 @@
       <c r="B5" t="s">
         <v>148</v>
       </c>
-      <c r="C5">
-        <v>126</v>
-      </c>
       <c r="D5">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2483,11 +2480,8 @@
       <c r="B11" t="s">
         <v>148</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5597,7 +5591,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -5614,7 +5608,7 @@
         <v>154</v>
       </c>
       <c r="C3" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -5631,7 +5625,7 @@
         <v>154</v>
       </c>
       <c r="C4" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -5648,13 +5642,13 @@
         <v>154</v>
       </c>
       <c r="C5" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>56736</v>
+        <v>56695</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5665,7 +5659,7 @@
         <v>154</v>
       </c>
       <c r="C6" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -5682,7 +5676,7 @@
         <v>154</v>
       </c>
       <c r="C7" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -5699,7 +5693,7 @@
         <v>154</v>
       </c>
       <c r="C8" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -5716,7 +5710,7 @@
         <v>154</v>
       </c>
       <c r="C9" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -5750,13 +5744,13 @@
         <v>154</v>
       </c>
       <c r="C11" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2194879</v>
+        <v>2194875</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5767,13 +5761,13 @@
         <v>154</v>
       </c>
       <c r="C12" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>21119029</v>
+        <v>21116945</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5784,7 +5778,7 @@
         <v>154</v>
       </c>
       <c r="C13" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -6505,7 +6499,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>44692</v>
+        <v>44701</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -6698,7 +6692,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -6730,7 +6724,7 @@
         <v>154</v>
       </c>
       <c r="C3" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -6762,7 +6756,7 @@
         <v>154</v>
       </c>
       <c r="C4" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -6794,13 +6788,13 @@
         <v>154</v>
       </c>
       <c r="C5" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>56736</v>
+        <v>56695</v>
       </c>
       <c r="F5" t="s">
         <v>155</v>
@@ -6815,7 +6809,7 @@
         <v>56067</v>
       </c>
       <c r="J5">
-        <v>669</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6826,7 +6820,7 @@
         <v>154</v>
       </c>
       <c r="C6" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -6858,7 +6852,7 @@
         <v>154</v>
       </c>
       <c r="C7" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -6890,7 +6884,7 @@
         <v>154</v>
       </c>
       <c r="C8" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -6922,7 +6916,7 @@
         <v>154</v>
       </c>
       <c r="C9" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -6986,13 +6980,13 @@
         <v>154</v>
       </c>
       <c r="C11" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2194879</v>
+        <v>2194875</v>
       </c>
       <c r="F11" t="s">
         <v>155</v>
@@ -7007,7 +7001,7 @@
         <v>2140856</v>
       </c>
       <c r="J11">
-        <v>54023</v>
+        <v>54019</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7018,13 +7012,13 @@
         <v>154</v>
       </c>
       <c r="C12" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>21119029</v>
+        <v>21116945</v>
       </c>
       <c r="F12" t="s">
         <v>155</v>
@@ -7039,7 +7033,7 @@
         <v>20810131</v>
       </c>
       <c r="J12">
-        <v>308898</v>
+        <v>306814</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7050,7 +7044,7 @@
         <v>154</v>
       </c>
       <c r="C13" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -7417,11 +7411,8 @@
       <c r="B5" t="s">
         <v>154</v>
       </c>
-      <c r="C5">
-        <v>82</v>
-      </c>
       <c r="D5">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7489,11 +7480,8 @@
       <c r="B11" t="s">
         <v>154</v>
       </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
       <c r="D11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7503,11 +7491,8 @@
       <c r="B12" t="s">
         <v>154</v>
       </c>
-      <c r="C12">
-        <v>4160</v>
-      </c>
       <c r="D12">
-        <v>2077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">

--- a/allTest_MSSPorgApril.xlsx
+++ b/allTest_MSSPorgApril.xlsx
@@ -1426,13 +1426,13 @@
         <v>148</v>
       </c>
       <c r="C10" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>6149856</v>
+        <v>6149850</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1466,7 +1466,7 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>45298217</v>
+        <v>45296085</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1494,13 +1494,13 @@
         <v>148</v>
       </c>
       <c r="C14" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>50318366</v>
+        <v>50882231</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1511,13 +1511,13 @@
         <v>148</v>
       </c>
       <c r="C15" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>12312780</v>
+        <v>12299700</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1528,13 +1528,13 @@
         <v>148</v>
       </c>
       <c r="C16" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>139809947</v>
+        <v>139658915</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1545,7 +1545,7 @@
         <v>148</v>
       </c>
       <c r="C17" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1562,7 +1562,7 @@
         <v>148</v>
       </c>
       <c r="C18" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1579,13 +1579,13 @@
         <v>148</v>
       </c>
       <c r="C19" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>3239882</v>
+        <v>3329996</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1596,13 +1596,13 @@
         <v>148</v>
       </c>
       <c r="C20" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>140111783</v>
+        <v>139658915</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1624,7 +1624,7 @@
         <v>148</v>
       </c>
       <c r="C22" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1942,13 +1942,13 @@
         <v>148</v>
       </c>
       <c r="C10" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>6149856</v>
+        <v>6149850</v>
       </c>
       <c r="F10" t="s">
         <v>149</v>
@@ -1963,7 +1963,7 @@
         <v>5841174</v>
       </c>
       <c r="J10">
-        <v>308682</v>
+        <v>308676</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2012,7 +2012,7 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>45298217</v>
+        <v>45296085</v>
       </c>
       <c r="F12" t="s">
         <v>149</v>
@@ -2027,7 +2027,7 @@
         <v>45007178</v>
       </c>
       <c r="J12">
-        <v>291039</v>
+        <v>288907</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2070,13 +2070,13 @@
         <v>148</v>
       </c>
       <c r="C14" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>50318366</v>
+        <v>50882231</v>
       </c>
       <c r="F14" t="s">
         <v>149</v>
@@ -2091,7 +2091,7 @@
         <v>49264715</v>
       </c>
       <c r="J14">
-        <v>1053651</v>
+        <v>1617516</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2102,13 +2102,13 @@
         <v>148</v>
       </c>
       <c r="C15" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>12312780</v>
+        <v>12299700</v>
       </c>
       <c r="F15" t="s">
         <v>149</v>
@@ -2123,7 +2123,7 @@
         <v>11682348</v>
       </c>
       <c r="J15">
-        <v>630432</v>
+        <v>617352</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2134,13 +2134,13 @@
         <v>148</v>
       </c>
       <c r="C16" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>139809947</v>
+        <v>139658915</v>
       </c>
       <c r="F16" t="s">
         <v>149</v>
@@ -2155,7 +2155,7 @@
         <v>133455878</v>
       </c>
       <c r="J16">
-        <v>6354069</v>
+        <v>6203037</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2166,7 +2166,7 @@
         <v>148</v>
       </c>
       <c r="C17" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -2198,7 +2198,7 @@
         <v>148</v>
       </c>
       <c r="C18" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -2230,13 +2230,13 @@
         <v>148</v>
       </c>
       <c r="C19" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>3239882</v>
+        <v>3329996</v>
       </c>
       <c r="F19" t="s">
         <v>149</v>
@@ -2251,7 +2251,7 @@
         <v>3222782</v>
       </c>
       <c r="J19">
-        <v>17100</v>
+        <v>107214</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2262,13 +2262,13 @@
         <v>148</v>
       </c>
       <c r="C20" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>140111783</v>
+        <v>139658915</v>
       </c>
       <c r="F20" t="s">
         <v>149</v>
@@ -2283,7 +2283,7 @@
         <v>133455878</v>
       </c>
       <c r="J20">
-        <v>6655905</v>
+        <v>6203037</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2314,7 +2314,7 @@
         <v>148</v>
       </c>
       <c r="C22" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -2466,11 +2466,8 @@
       <c r="B10" t="s">
         <v>148</v>
       </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2491,11 +2488,8 @@
       <c r="B12" t="s">
         <v>148</v>
       </c>
-      <c r="C12">
-        <v>4262</v>
-      </c>
       <c r="D12">
-        <v>2131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2527,11 +2521,8 @@
       <c r="B15" t="s">
         <v>148</v>
       </c>
-      <c r="C15">
-        <v>26136</v>
-      </c>
       <c r="D15">
-        <v>13056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2542,10 +2533,10 @@
         <v>148</v>
       </c>
       <c r="C16">
-        <v>301840</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>150806</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2577,11 +2568,8 @@
       <c r="B19" t="s">
         <v>148</v>
       </c>
-      <c r="C19">
-        <v>3638</v>
-      </c>
       <c r="D19">
-        <v>1543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5727,13 +5715,13 @@
         <v>154</v>
       </c>
       <c r="C10" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>3286605</v>
+        <v>3286593</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5795,13 +5783,13 @@
         <v>154</v>
       </c>
       <c r="C14" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>22175179</v>
+        <v>22172724</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5812,13 +5800,13 @@
         <v>154</v>
       </c>
       <c r="C15" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>6584490</v>
+        <v>6573186</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5829,13 +5817,13 @@
         <v>154</v>
       </c>
       <c r="C16" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>69617311</v>
+        <v>69489533</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5846,7 +5834,7 @@
         <v>154</v>
       </c>
       <c r="C17" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -5863,7 +5851,7 @@
         <v>154</v>
       </c>
       <c r="C18" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -5880,13 +5868,13 @@
         <v>154</v>
       </c>
       <c r="C19" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2577229</v>
+        <v>2690927</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5897,13 +5885,13 @@
         <v>154</v>
       </c>
       <c r="C20" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>69872411</v>
+        <v>69489533</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5925,13 +5913,13 @@
         <v>154</v>
       </c>
       <c r="C22" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22">
-        <v>8361</v>
+        <v>16713</v>
       </c>
     </row>
   </sheetData>
@@ -6948,13 +6936,13 @@
         <v>154</v>
       </c>
       <c r="C10" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>3286605</v>
+        <v>3286593</v>
       </c>
       <c r="F10" t="s">
         <v>155</v>
@@ -6969,7 +6957,7 @@
         <v>3160995</v>
       </c>
       <c r="J10">
-        <v>125610</v>
+        <v>125598</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7076,13 +7064,13 @@
         <v>154</v>
       </c>
       <c r="C14" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>22175179</v>
+        <v>22172724</v>
       </c>
       <c r="F14" t="s">
         <v>155</v>
@@ -7097,7 +7085,7 @@
         <v>21500834</v>
       </c>
       <c r="J14">
-        <v>674345</v>
+        <v>671890</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7108,13 +7096,13 @@
         <v>154</v>
       </c>
       <c r="C15" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>6584490</v>
+        <v>6573186</v>
       </c>
       <c r="F15" t="s">
         <v>155</v>
@@ -7129,7 +7117,7 @@
         <v>6321990</v>
       </c>
       <c r="J15">
-        <v>262500</v>
+        <v>251196</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7140,13 +7128,13 @@
         <v>154</v>
       </c>
       <c r="C16" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>69617311</v>
+        <v>69489533</v>
       </c>
       <c r="F16" t="s">
         <v>155</v>
@@ -7161,7 +7149,7 @@
         <v>66986579</v>
       </c>
       <c r="J16">
-        <v>2630732</v>
+        <v>2502954</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7172,7 +7160,7 @@
         <v>154</v>
       </c>
       <c r="C17" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -7204,7 +7192,7 @@
         <v>154</v>
       </c>
       <c r="C18" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -7236,13 +7224,13 @@
         <v>154</v>
       </c>
       <c r="C19" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2577229</v>
+        <v>2690927</v>
       </c>
       <c r="F19" t="s">
         <v>155</v>
@@ -7257,7 +7245,7 @@
         <v>2571361</v>
       </c>
       <c r="J19">
-        <v>5868</v>
+        <v>119566</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7268,13 +7256,13 @@
         <v>154</v>
       </c>
       <c r="C20" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>69872411</v>
+        <v>69489533</v>
       </c>
       <c r="F20" t="s">
         <v>155</v>
@@ -7289,7 +7277,7 @@
         <v>66986579</v>
       </c>
       <c r="J20">
-        <v>2885832</v>
+        <v>2502954</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7320,13 +7308,13 @@
         <v>154</v>
       </c>
       <c r="C22" s="2">
-        <v>44692</v>
+        <v>44704</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22">
-        <v>8361</v>
+        <v>16713</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -7341,7 +7329,7 @@
         <v>9</v>
       </c>
       <c r="J22">
-        <v>8352</v>
+        <v>16704</v>
       </c>
     </row>
   </sheetData>
@@ -7466,11 +7454,8 @@
       <c r="B10" t="s">
         <v>154</v>
       </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
       <c r="D10">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7524,11 +7509,8 @@
       <c r="B15" t="s">
         <v>154</v>
       </c>
-      <c r="C15">
-        <v>22560</v>
-      </c>
       <c r="D15">
-        <v>11256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7538,11 +7520,8 @@
       <c r="B16" t="s">
         <v>154</v>
       </c>
-      <c r="C16">
-        <v>255100</v>
-      </c>
       <c r="D16">
-        <v>127322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7574,11 +7553,8 @@
       <c r="B19" t="s">
         <v>154</v>
       </c>
-      <c r="C19">
-        <v>1100</v>
-      </c>
       <c r="D19">
-        <v>550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7599,8 +7575,11 @@
       <c r="B21" t="s">
         <v>154</v>
       </c>
+      <c r="C21">
+        <v>16704</v>
+      </c>
       <c r="D21">
-        <v>0</v>
+        <v>8352</v>
       </c>
     </row>
   </sheetData>
